--- a/BDD_informalidad.xlsx
+++ b/BDD_informalidad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cabre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sargobhn-my.sharepoint.com/personal/jbermudez_sar_gob_hn/Documents/Informalidad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD987912-5763-4003-8E21-DF35BBBD3BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{CD987912-5763-4003-8E21-DF35BBBD3BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{616AE7A4-2039-4E62-AEE6-00438D3391C5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{8264A5D2-B10E-4E04-BF01-AAAB338D95EA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8264A5D2-B10E-4E04-BF01-AAAB338D95EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>AÑO</t>
   </si>
@@ -84,6 +82,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Tasa Activa</t>
+  </si>
+  <si>
+    <t>remuneración_enfoque_ingreso</t>
   </si>
 </sst>
 </file>
@@ -177,12 +178,9 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -196,6 +194,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -512,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064B7E14-16E8-4B79-A5B9-74D1EC4C23F6}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,66 +527,70 @@
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2001</v>
       </c>
       <c r="B2" s="1">
         <v>118415.7</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>12060.1735211</v>
       </c>
       <c r="D2" s="1"/>
@@ -599,31 +607,34 @@
         <v>1752.8999999999999</v>
       </c>
       <c r="I2" s="1">
+        <v>51915.3</v>
+      </c>
+      <c r="J2" s="1">
         <v>2334595.6299600098</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>2437996.7998299901</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>8.8101725703905629</v>
       </c>
-      <c r="L2" s="5">
+      <c r="M2" s="4">
         <v>23.18</v>
       </c>
-      <c r="M2" s="6">
+      <c r="N2" s="5">
         <v>9.83</v>
       </c>
-      <c r="N2" s="5">
+      <c r="O2" s="4">
         <v>11.76</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>53322.483978682467</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>39482.963308980194</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>+A2+1</f>
         <v>2002</v>
@@ -631,7 +642,7 @@
       <c r="B3" s="1">
         <v>129166.6</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>14276.932883220001</v>
       </c>
       <c r="D3" s="1"/>
@@ -648,31 +659,34 @@
         <v>1971.3999999999999</v>
       </c>
       <c r="I3" s="1">
+        <v>57536.2</v>
+      </c>
+      <c r="J3" s="1">
         <v>2396633.7200000002</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>2497860</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>8.0968280467445872</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M3" s="4">
         <v>22.06</v>
       </c>
-      <c r="M3" s="6">
+      <c r="N3" s="5">
         <v>7.5</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="4">
         <v>9.57</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>60180.364143726147</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>43985.713600198527</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A22" si="0">+A3+1</f>
         <v>2003</v>
@@ -680,7 +694,7 @@
       <c r="B4" s="1">
         <v>142817.79999999999</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>17071.837936169999</v>
       </c>
       <c r="D4" s="1"/>
@@ -697,31 +711,34 @@
         <v>2159.875</v>
       </c>
       <c r="I4" s="1">
+        <v>64791.1</v>
+      </c>
+      <c r="J4" s="1">
         <v>2252690.36</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>2380814.04</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>6.7953667953668084</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="4">
         <v>20.239999999999998</v>
       </c>
-      <c r="M4" s="6">
+      <c r="N4" s="5">
         <v>6.12</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="4">
         <v>8.14</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>67500.492940467084</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>49344.507688687736</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -729,7 +746,7 @@
       <c r="B5" s="1">
         <v>161507.5</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>18554.978883177202</v>
       </c>
       <c r="D5" s="1"/>
@@ -746,31 +763,34 @@
         <v>2366.5</v>
       </c>
       <c r="I5" s="1">
+        <v>72273.100000000006</v>
+      </c>
+      <c r="J5" s="1">
         <v>2438954.92</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>2592185.56</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>9.182935647143875</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="4">
         <v>19.45</v>
       </c>
-      <c r="M5" s="6">
+      <c r="N5" s="5">
         <v>6.01</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="4">
         <v>8.0399999999999991</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>79676.875997031209</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>57399.352629507208</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -778,7 +798,7 @@
       <c r="B6" s="1">
         <v>183747.4</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>21238.214682860002</v>
       </c>
       <c r="D6" s="1"/>
@@ -795,31 +815,34 @@
         <v>2593.1750000000002</v>
       </c>
       <c r="I6" s="1">
+        <v>81708.899999999994</v>
+      </c>
+      <c r="J6" s="1">
         <v>2627087.8715050598</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>2759409.3280101898</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>7.7483443708609157</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="4">
         <v>18.36</v>
       </c>
-      <c r="M6" s="6">
+      <c r="N6" s="5">
         <v>5.98</v>
       </c>
-      <c r="N6" s="5">
+      <c r="O6" s="4">
         <v>8.0500000000000007</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>93522.165000482913</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>68781.555690936002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -827,7 +850,7 @@
       <c r="B7" s="1">
         <v>206288</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>26235.731557970001</v>
       </c>
       <c r="D7" s="1"/>
@@ -844,31 +867,34 @@
         <v>2829.7000000000003</v>
       </c>
       <c r="I7" s="1">
+        <v>91483.199999999997</v>
+      </c>
+      <c r="J7" s="1">
         <v>2695846.52055716</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>2792260.6861694702</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>5.285802089735725</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="5">
         <v>4.28</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="4">
         <v>5.75</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>113673.56660582146</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>85270.801527552801</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -876,7 +902,7 @@
       <c r="B8" s="1">
         <v>233567.2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>30247.716502270003</v>
       </c>
       <c r="D8" s="1"/>
@@ -893,31 +919,34 @@
         <v>3087.7750000000001</v>
       </c>
       <c r="I8" s="1">
+        <v>105306.8</v>
+      </c>
+      <c r="J8" s="1">
         <v>2773491.5790306502</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>2860866.1110187899</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>8.8733216579100826</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="4">
         <v>16.46</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="5">
         <v>3.97</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="4">
         <v>5.64</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>132628.91782269365</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>99891.19375183231</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -925,7 +954,7 @@
       <c r="B9" s="1">
         <v>262416.90000000002</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>30863.811766639999</v>
       </c>
       <c r="D9" s="1"/>
@@ -942,31 +971,34 @@
         <v>3442.9750000000004</v>
       </c>
       <c r="I9" s="1">
+        <v>120028.7</v>
+      </c>
+      <c r="J9" s="1">
         <v>2901076.0172359799</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>2990533.8855683599</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>10.831099195710458</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="4">
         <v>20.04</v>
       </c>
-      <c r="M9" s="6">
+      <c r="N9" s="5">
         <v>4.3</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="4">
         <v>7.57</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>139080.15527551412</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>102377.55253323365</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -974,7 +1006,7 @@
       <c r="B10" s="1">
         <v>275632.2</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>32394.466103439001</v>
       </c>
       <c r="D10" s="1"/>
@@ -991,31 +1023,34 @@
         <v>4777.7999999999993</v>
       </c>
       <c r="I10" s="1">
+        <v>128555.4</v>
+      </c>
+      <c r="J10" s="1">
         <v>3135563.6442784299</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>3236859.5980369798</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>2.9511369134010756</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="4">
         <v>18.940000000000001</v>
       </c>
-      <c r="M10" s="6">
+      <c r="N10" s="5">
         <v>4.05</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="4">
         <v>7.04</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>139868.11299774321</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>102199.89723412626</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -1023,7 +1058,7 @@
       <c r="B11" s="1">
         <v>299286</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>37375.317863965167</v>
       </c>
       <c r="D11" s="1"/>
@@ -1040,31 +1075,34 @@
         <v>4779.0499999999993</v>
       </c>
       <c r="I11" s="1">
+        <v>141175.5</v>
+      </c>
+      <c r="J11" s="1">
         <v>3253980.34308375</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>3387717.1599382199</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>6.4849624060150379</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M11" s="4">
         <v>18.96</v>
       </c>
-      <c r="M11" s="6">
+      <c r="N11" s="5">
         <v>3.95</v>
       </c>
-      <c r="N11" s="5">
+      <c r="O11" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>153555.19584430254</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>115759.3407164298</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -1072,7 +1110,7 @@
       <c r="B12" s="1">
         <v>335027.8</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>41225.212996853486</v>
       </c>
       <c r="D12" s="1"/>
@@ -1089,31 +1127,34 @@
         <v>6121.7583333333341</v>
       </c>
       <c r="I12" s="1">
+        <v>156597.1</v>
+      </c>
+      <c r="J12" s="1">
         <v>3226135.3096954301</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>3369918.7024299698</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>5.604589585172115</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="4">
         <v>18.100000000000001</v>
       </c>
-      <c r="M12" s="6">
+      <c r="N12" s="5">
         <v>3.7</v>
       </c>
-      <c r="N12" s="5">
+      <c r="O12" s="4">
         <v>4.53</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>172578.02286450635</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>130773.47350478238</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -1121,7 +1162,7 @@
       <c r="B13" s="1">
         <v>361348.5</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>38399.880424509989</v>
       </c>
       <c r="D13" s="1"/>
@@ -1138,31 +1179,34 @@
         <v>6377.7062499999993</v>
       </c>
       <c r="I13" s="1">
+        <v>165798.39999999999</v>
+      </c>
+      <c r="J13" s="1">
         <v>3243876.7270431402</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>3364687.86263286</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>5.3907229419139169</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M13" s="4">
         <v>19.239999999999998</v>
       </c>
-      <c r="M13" s="6">
+      <c r="N13" s="5">
         <v>3.9</v>
       </c>
-      <c r="N13" s="5">
+      <c r="O13" s="4">
         <v>5.78</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>184622.46816722286</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>136500.91175878409</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -1170,7 +1214,7 @@
       <c r="B14" s="1">
         <v>376539.4</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>40120.01796338</v>
       </c>
       <c r="D14" s="1"/>
@@ -1187,31 +1231,34 @@
         <v>6770.0687500000013</v>
       </c>
       <c r="I14" s="1">
+        <v>176734.7</v>
+      </c>
+      <c r="J14" s="1">
         <v>3487008.8240420702</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>3628732.7025385201</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>4.9167327517843029</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M14" s="4">
         <v>20.28</v>
       </c>
-      <c r="M14" s="6">
+      <c r="N14" s="5">
         <v>3.97</v>
       </c>
-      <c r="N14" s="5">
+      <c r="O14" s="4">
         <v>6.41</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>199890.63485501939</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>147467.67011946431</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -1219,7 +1266,7 @@
       <c r="B15" s="1">
         <v>414633.5</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>45521.736282235201</v>
       </c>
       <c r="D15" s="1"/>
@@ -1236,31 +1283,34 @@
         <v>7157.5124999999998</v>
       </c>
       <c r="I15" s="1">
+        <v>188793.2</v>
+      </c>
+      <c r="J15" s="1">
         <v>3460910.6469989698</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>3655098.76397601</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>5.8201058201058142</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M15" s="4">
         <v>20.65</v>
       </c>
-      <c r="M15" s="6">
+      <c r="N15" s="5">
         <v>3.79</v>
       </c>
-      <c r="N15" s="5">
+      <c r="O15" s="4">
         <v>6.08</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>226358.04146226286</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>163248.75162129136</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -1268,7 +1318,7 @@
       <c r="B16" s="1">
         <v>460405.2</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>52279.498092120157</v>
       </c>
       <c r="D16" s="1"/>
@@ -1285,31 +1335,34 @@
         <v>7610.90625</v>
       </c>
       <c r="I16" s="1">
+        <v>202459.1</v>
+      </c>
+      <c r="J16" s="1">
         <v>3647637.0321056498</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>3935335</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>2.3571428571428577</v>
       </c>
-      <c r="L16" s="5">
+      <c r="M16" s="4">
         <v>20.02</v>
       </c>
-      <c r="M16" s="6">
+      <c r="N16" s="5">
         <v>3.7</v>
       </c>
-      <c r="N16" s="5">
+      <c r="O16" s="4">
         <v>5.3</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>244036.24035413505</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>180774.55034281389</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -1317,7 +1370,7 @@
       <c r="B17" s="1">
         <v>495921.9</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>58480.740118546571</v>
       </c>
       <c r="D17" s="1"/>
@@ -1334,31 +1387,34 @@
         <v>8077.5340909090919</v>
       </c>
       <c r="I17" s="1">
+        <v>216705.3</v>
+      </c>
+      <c r="J17" s="1">
         <v>3653787.0229581399</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>3944835.5112500601</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>3.3147243545010419</v>
       </c>
-      <c r="L17" s="5">
+      <c r="M17" s="4">
         <v>18.79</v>
       </c>
-      <c r="M17" s="6">
+      <c r="N17" s="5">
         <v>3.53</v>
       </c>
-      <c r="N17" s="5">
+      <c r="O17" s="4">
         <v>4.8499999999999996</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>288072.67758616665</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>213702.46676373467</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -1366,7 +1422,7 @@
       <c r="B18" s="1">
         <v>543403</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>66741.835368049884</v>
       </c>
       <c r="D18" s="1"/>
@@ -1383,31 +1439,34 @@
         <v>8448.3886363636375</v>
       </c>
       <c r="I18" s="1">
+        <v>233097.4</v>
+      </c>
+      <c r="J18" s="1">
         <v>3819978.2322415798</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>4093474.222108868</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>4.7281323877068626</v>
       </c>
-      <c r="L18" s="5">
+      <c r="M18" s="4">
         <v>18.239999999999998</v>
       </c>
-      <c r="M18" s="6">
+      <c r="N18" s="5">
         <v>3.11</v>
       </c>
-      <c r="N18" s="5">
+      <c r="O18" s="4">
         <v>4.62</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>323665.20942495979</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>241981.9252882927</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -1415,7 +1474,7 @@
       <c r="B19" s="1">
         <v>575284.9</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>70864.540288756776</v>
       </c>
       <c r="D19" s="1"/>
@@ -1432,31 +1491,34 @@
         <v>8910.6340909090923</v>
       </c>
       <c r="I19" s="1">
+        <v>246430.5</v>
+      </c>
+      <c r="J19" s="1">
         <v>4090651.3951348201</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>4336377.8916988904</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>4.2244437278297298</v>
       </c>
-      <c r="L19" s="6">
+      <c r="M19" s="5">
         <v>17.43</v>
       </c>
-      <c r="M19" s="6">
+      <c r="N19" s="5">
         <v>2.95</v>
       </c>
-      <c r="N19" s="5">
+      <c r="O19" s="4">
         <v>4.62</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>349918.63868688815</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>264766.43392717699</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -1464,7 +1526,7 @@
       <c r="B20" s="1">
         <v>614917.69999999995</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>81953.413669296875</v>
       </c>
       <c r="D20" s="1"/>
@@ -1481,31 +1543,34 @@
         <v>9443.24</v>
       </c>
       <c r="I20" s="1">
+        <v>264198.3</v>
+      </c>
+      <c r="J20" s="1">
         <v>3979761.4408606421</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>4220294</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>4.0841584158415767</v>
       </c>
-      <c r="L20" s="6">
+      <c r="M20" s="5">
         <v>17.39</v>
       </c>
-      <c r="M20" s="6">
+      <c r="N20" s="5">
         <v>3.35</v>
       </c>
-      <c r="N20" s="5">
+      <c r="O20" s="4">
         <v>4.95</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>387446.33627332462</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>301033.21517638501</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -1513,7 +1578,7 @@
       <c r="B21" s="1">
         <v>585733.6</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>106018.77652659427</v>
       </c>
       <c r="D21" s="1"/>
@@ -1530,31 +1595,34 @@
         <v>10022.040000000001</v>
       </c>
       <c r="I21" s="1">
+        <v>252432.1</v>
+      </c>
+      <c r="J21" s="1">
         <v>3655653</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>4103427</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>4.0130796670630131</v>
       </c>
-      <c r="L21" s="6">
+      <c r="M21" s="5">
         <v>16.68</v>
       </c>
-      <c r="M21" s="6">
+      <c r="N21" s="5">
         <v>3.13</v>
       </c>
-      <c r="N21" s="5">
+      <c r="O21" s="4">
         <v>4.18</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>459834.08638890175</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>362352.76241546974</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -1562,7 +1630,7 @@
       <c r="B22" s="1">
         <v>684203.8</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>115266.28730683128</v>
       </c>
       <c r="D22" s="1"/>
@@ -1579,32 +1647,31 @@
         <v>10601.67</v>
       </c>
       <c r="I22" s="1">
+        <v>287359.3</v>
+      </c>
+      <c r="J22" s="1">
         <v>3722369.5436004065</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <v>4071227.2451356156</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <v>5.3199999999999994</v>
       </c>
-      <c r="L22" s="6">
+      <c r="M22" s="5">
         <v>15.08</v>
       </c>
-      <c r="M22" s="6">
+      <c r="N22" s="5">
         <v>2.38</v>
       </c>
-      <c r="N22" s="5">
+      <c r="O22" s="4">
         <v>2.69</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>503907.53226568562</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>402357.13215534104</v>
-      </c>
-      <c r="S22">
-        <f t="shared" ref="S22" si="1">+K22*100</f>
-        <v>531.99999999999989</v>
       </c>
     </row>
   </sheetData>
@@ -1831,18 +1898,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1865,18 +1932,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAFDE13-8D48-4A1B-8A83-8CCF464BCB5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE63FCEF-28AE-43C0-83D3-D5EEA71F2F85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAFDE13-8D48-4A1B-8A83-8CCF464BCB5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/BDD_informalidad.xlsx
+++ b/BDD_informalidad.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sargobhn-my.sharepoint.com/personal/jbermudez_sar_gob_hn/Documents/Informalidad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{CD987912-5763-4003-8E21-DF35BBBD3BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{616AE7A4-2039-4E62-AEE6-00438D3391C5}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{CD987912-5763-4003-8E21-DF35BBBD3BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C51CE83-8603-437C-BAFC-5074F76DC309}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8264A5D2-B10E-4E04-BF01-AAAB338D95EA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="2001-2021" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,18 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>AÑO</t>
-  </si>
-  <si>
-    <t>PIB</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
     <t>billetes_monedas</t>
   </si>
   <si>
@@ -55,9 +43,6 @@
   </si>
   <si>
     <t>población</t>
-  </si>
-  <si>
-    <t>remuneración</t>
   </si>
   <si>
     <t>Ocupados</t>
@@ -75,29 +60,43 @@
     <t xml:space="preserve">Promedio </t>
   </si>
   <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Tasa Activa</t>
   </si>
   <si>
-    <t>remuneración_enfoque_ingreso</t>
+    <t>year</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>pib_nominal</t>
+  </si>
+  <si>
+    <t>pib_real</t>
+  </si>
+  <si>
+    <t>remuneraciones</t>
+  </si>
+  <si>
+    <t>tasa_real</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.00_)"/>
-    <numFmt numFmtId="166" formatCode="0.00_ ;\-0.00\ "/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,35 +117,20 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -178,28 +162,20 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -518,1160 +494,1203 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064B7E14-16E8-4B79-A5B9-74D1EC4C23F6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="J1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="M1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="N1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="O1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="Q1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>2001</v>
       </c>
       <c r="B2" s="1">
         <v>118415.7</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="1">
+        <v>109558.6</v>
+      </c>
+      <c r="D2" s="5">
         <v>12060.1735211</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1">
-        <v>5105.9477935100003</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="5">
+        <v>39482.963308980194</v>
+      </c>
+      <c r="F2" s="5">
+        <v>53322.483978682467</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6375.1</v>
+      </c>
+      <c r="H2" s="6">
         <v>16083.205000000002</v>
       </c>
-      <c r="G2" s="1">
-        <v>6339886.3499999996</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1752.8999999999999</v>
-      </c>
       <c r="I2" s="1">
+        <v>6751912</v>
+      </c>
+      <c r="J2" s="1">
         <v>51915.3</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="L2" s="1">
         <v>2334595.6299600098</v>
       </c>
-      <c r="K2" s="1">
+      <c r="M2" s="1">
         <v>2437996.7998299901</v>
       </c>
-      <c r="L2" s="1">
+      <c r="N2" s="1">
         <v>8.8101725703905629</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="1">
         <v>23.18</v>
       </c>
-      <c r="N2" s="5">
+      <c r="P2" s="1">
         <v>9.83</v>
       </c>
-      <c r="O2" s="4">
+      <c r="Q2" s="1">
         <v>11.76</v>
       </c>
-      <c r="P2">
-        <v>53322.483978682467</v>
-      </c>
-      <c r="Q2">
-        <v>39482.963308980194</v>
-      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <f>+A2+1</f>
         <v>2002</v>
       </c>
       <c r="B3" s="1">
         <v>129166.6</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="1">
+        <v>113671.8</v>
+      </c>
+      <c r="D3" s="5">
         <v>14276.932883220001</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1">
-        <v>5480.5783923600002</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="5">
+        <v>43985.713600198527</v>
+      </c>
+      <c r="F3" s="5">
+        <v>60180.364143726147</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6985.23</v>
+      </c>
+      <c r="H3" s="6">
         <v>17228.944926000004</v>
       </c>
-      <c r="G3" s="1">
-        <v>6624326.25</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1971.3999999999999</v>
-      </c>
       <c r="I3" s="1">
+        <v>6929267</v>
+      </c>
+      <c r="J3" s="1">
         <v>57536.2</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
+        <v>4.13</v>
+      </c>
+      <c r="L3" s="1">
         <v>2396633.7200000002</v>
       </c>
-      <c r="K3" s="1">
+      <c r="M3" s="1">
         <v>2497860</v>
       </c>
-      <c r="L3" s="1">
+      <c r="N3" s="1">
         <v>8.0968280467445872</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="1">
         <v>22.06</v>
       </c>
-      <c r="N3" s="5">
+      <c r="P3" s="1">
         <v>7.5</v>
       </c>
-      <c r="O3" s="4">
+      <c r="Q3" s="1">
         <v>9.57</v>
       </c>
-      <c r="P3">
-        <v>60180.364143726147</v>
-      </c>
-      <c r="Q3">
-        <v>43985.713600198527</v>
-      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <f t="shared" ref="A4:A22" si="0">+A3+1</f>
         <v>2003</v>
       </c>
       <c r="B4" s="1">
         <v>142817.79999999999</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="1">
+        <v>118840.5</v>
+      </c>
+      <c r="D4" s="5">
         <v>17071.837936169999</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1">
-        <v>6404.8362266100012</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="5">
+        <v>49344.507688687736</v>
+      </c>
+      <c r="F4" s="5">
+        <v>67500.492940467084</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8056.13</v>
+      </c>
+      <c r="H4" s="6">
         <v>19632.368080799999</v>
       </c>
-      <c r="G4" s="1">
-        <v>6766186.4199999999</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2159.875</v>
-      </c>
       <c r="I4" s="1">
+        <v>7106323</v>
+      </c>
+      <c r="J4" s="1">
         <v>64791.1</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
+        <v>4.13</v>
+      </c>
+      <c r="L4" s="1">
         <v>2252690.36</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M4" s="1">
         <v>2380814.04</v>
       </c>
-      <c r="L4" s="1">
+      <c r="N4" s="1">
         <v>6.7953667953668084</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="1">
         <v>20.239999999999998</v>
       </c>
-      <c r="N4" s="5">
+      <c r="P4" s="1">
         <v>6.12</v>
       </c>
-      <c r="O4" s="4">
+      <c r="Q4" s="1">
         <v>8.14</v>
       </c>
-      <c r="P4">
-        <v>67500.492940467084</v>
-      </c>
-      <c r="Q4">
-        <v>49344.507688687736</v>
-      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
       <c r="B5" s="1">
         <v>161507.5</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="1">
+        <v>126247</v>
+      </c>
+      <c r="D5" s="5">
         <v>18554.978883177202</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
-        <v>7587.7550077899996</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="5">
+        <v>57399.352629507208</v>
+      </c>
+      <c r="F5" s="5">
+        <v>79676.875997031209</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9379.19</v>
+      </c>
+      <c r="H5" s="6">
         <v>23411.646999999997</v>
       </c>
-      <c r="G5" s="1">
-        <v>6971544.2400000002</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2366.5</v>
-      </c>
       <c r="I5" s="1">
+        <v>7282953</v>
+      </c>
+      <c r="J5" s="1">
         <v>72273.100000000006</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="L5" s="1">
         <v>2438954.92</v>
       </c>
-      <c r="K5" s="1">
+      <c r="M5" s="1">
         <v>2592185.56</v>
       </c>
-      <c r="L5" s="1">
+      <c r="N5" s="1">
         <v>9.182935647143875</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="1">
         <v>19.45</v>
       </c>
-      <c r="N5" s="5">
+      <c r="P5" s="1">
         <v>6.01</v>
       </c>
-      <c r="O5" s="4">
+      <c r="Q5" s="1">
         <v>8.0399999999999991</v>
       </c>
-      <c r="P5">
-        <v>79676.875997031209</v>
-      </c>
-      <c r="Q5">
-        <v>57399.352629507208</v>
-      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
       <c r="B6" s="1">
         <v>183747.4</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="1">
+        <v>133885.70000000001</v>
+      </c>
+      <c r="D6" s="5">
         <v>21238.214682860002</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
-        <v>8904.0988496799982</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="5">
+        <v>68781.555690936002</v>
+      </c>
+      <c r="F6" s="5">
+        <v>93522.165000482913</v>
+      </c>
+      <c r="G6" s="1">
+        <v>11113.45</v>
+      </c>
+      <c r="H6" s="6">
         <v>26707.625000000004</v>
       </c>
-      <c r="G6" s="1">
-        <v>7168716.9699999997</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2593.1750000000002</v>
-      </c>
       <c r="I6" s="1">
+        <v>7458982</v>
+      </c>
+      <c r="J6" s="1">
         <v>81708.899999999994</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="L6" s="1">
         <v>2627087.8715050598</v>
       </c>
-      <c r="K6" s="1">
+      <c r="M6" s="1">
         <v>2759409.3280101898</v>
       </c>
-      <c r="L6" s="1">
+      <c r="N6" s="1">
         <v>7.7483443708609157</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="1">
         <v>18.36</v>
       </c>
-      <c r="N6" s="5">
+      <c r="P6" s="1">
         <v>5.98</v>
       </c>
-      <c r="O6" s="4">
+      <c r="Q6" s="1">
         <v>8.0500000000000007</v>
       </c>
-      <c r="P6">
-        <v>93522.165000482913</v>
-      </c>
-      <c r="Q6">
-        <v>68781.555690936002</v>
-      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
       <c r="B7" s="1">
         <v>206288</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="1">
+        <v>142678.29999999999</v>
+      </c>
+      <c r="D7" s="5">
         <v>26235.731557970001</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
-        <v>10442.64162059</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="5">
+        <v>85270.801527552801</v>
+      </c>
+      <c r="F7" s="5">
+        <v>113673.56660582146</v>
+      </c>
+      <c r="G7" s="1">
+        <v>13592.61</v>
+      </c>
+      <c r="H7" s="6">
         <v>31434.857731999997</v>
       </c>
-      <c r="G7" s="1">
-        <v>7367021.9299999997</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2829.7000000000003</v>
-      </c>
       <c r="I7" s="1">
+        <v>7634295</v>
+      </c>
+      <c r="J7" s="1">
         <v>91483.199999999997</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
+        <v>2.62</v>
+      </c>
+      <c r="L7" s="1">
         <v>2695846.52055716</v>
       </c>
-      <c r="K7" s="1">
+      <c r="M7" s="1">
         <v>2792260.6861694702</v>
       </c>
-      <c r="L7" s="1">
+      <c r="N7" s="1">
         <v>5.285802089735725</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="1">
         <v>16.600000000000001</v>
       </c>
-      <c r="N7" s="5">
+      <c r="P7" s="1">
         <v>4.28</v>
       </c>
-      <c r="O7" s="4">
+      <c r="Q7" s="1">
         <v>5.75</v>
       </c>
-      <c r="P7">
-        <v>113673.56660582146</v>
-      </c>
-      <c r="Q7">
-        <v>85270.801527552801</v>
-      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
       <c r="B8" s="1">
         <v>233567.2</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="1">
+        <v>151507.70000000001</v>
+      </c>
+      <c r="D8" s="5">
         <v>30247.716502270003</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
-        <v>11905.644162160002</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="5">
+        <v>99891.19375183231</v>
+      </c>
+      <c r="F8" s="5">
+        <v>132628.91782269365</v>
+      </c>
+      <c r="G8" s="1">
+        <v>16362.52</v>
+      </c>
+      <c r="H8" s="6">
         <v>38269.987959999999</v>
       </c>
-      <c r="G8" s="1">
-        <v>7529403</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3087.7750000000001</v>
-      </c>
       <c r="I8" s="1">
+        <v>7808520</v>
+      </c>
+      <c r="J8" s="1">
         <v>105306.8</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
+        <v>-0.74</v>
+      </c>
+      <c r="L8" s="1">
         <v>2773491.5790306502</v>
       </c>
-      <c r="K8" s="1">
+      <c r="M8" s="1">
         <v>2860866.1110187899</v>
       </c>
-      <c r="L8" s="1">
+      <c r="N8" s="1">
         <v>8.8733216579100826</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="1">
         <v>16.46</v>
       </c>
-      <c r="N8" s="5">
+      <c r="P8" s="1">
         <v>3.97</v>
       </c>
-      <c r="O8" s="4">
+      <c r="Q8" s="1">
         <v>5.64</v>
       </c>
-      <c r="P8">
-        <v>132628.91782269365</v>
-      </c>
-      <c r="Q8">
-        <v>99891.19375183231</v>
-      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
       <c r="B9" s="1">
         <v>262416.90000000002</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="1">
+        <v>157918.9</v>
+      </c>
+      <c r="D9" s="5">
         <v>30863.811766639999</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1">
-        <v>11856.789250490001</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" s="5">
+        <v>102377.55253323365</v>
+      </c>
+      <c r="F9" s="5">
+        <v>139080.15527551412</v>
+      </c>
+      <c r="G9" s="1">
+        <v>16468.43</v>
+      </c>
+      <c r="H9" s="6">
         <v>42328.932000000001</v>
       </c>
-      <c r="G9" s="1">
-        <v>7699405.1500000004</v>
-      </c>
-      <c r="H9" s="1">
-        <v>3442.9750000000004</v>
-      </c>
       <c r="I9" s="1">
+        <v>7980955</v>
+      </c>
+      <c r="J9" s="1">
         <v>120028.7</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="L9" s="1">
         <v>2901076.0172359799</v>
       </c>
-      <c r="K9" s="1">
+      <c r="M9" s="1">
         <v>2990533.8855683599</v>
       </c>
-      <c r="L9" s="1">
+      <c r="N9" s="1">
         <v>10.831099195710458</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="1">
         <v>20.04</v>
       </c>
-      <c r="N9" s="5">
+      <c r="P9" s="1">
         <v>4.3</v>
       </c>
-      <c r="O9" s="4">
+      <c r="Q9" s="1">
         <v>7.57</v>
       </c>
-      <c r="P9">
-        <v>139080.15527551412</v>
-      </c>
-      <c r="Q9">
-        <v>102377.55253323365</v>
-      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
       <c r="B10" s="1">
         <v>275632.2</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="1">
+        <v>154078.9</v>
+      </c>
+      <c r="D10" s="5">
         <v>32394.466103439001</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
-        <v>12971.179556600002</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="5">
+        <v>102199.89723412626</v>
+      </c>
+      <c r="F10" s="5">
+        <v>139868.11299774321</v>
+      </c>
+      <c r="G10" s="1">
+        <v>17705.68</v>
+      </c>
+      <c r="H10" s="6">
         <v>39035</v>
       </c>
-      <c r="G10" s="1">
-        <v>7869089.3899999997</v>
-      </c>
-      <c r="H10" s="1">
-        <v>4777.7999999999993</v>
-      </c>
       <c r="I10" s="1">
+        <v>8150780</v>
+      </c>
+      <c r="J10" s="1">
         <v>128555.4</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
+        <v>7.56</v>
+      </c>
+      <c r="L10" s="1">
         <v>3135563.6442784299</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M10" s="1">
         <v>3236859.5980369798</v>
       </c>
-      <c r="L10" s="1">
+      <c r="N10" s="1">
         <v>2.9511369134010756</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="1">
         <v>18.940000000000001</v>
       </c>
-      <c r="N10" s="5">
+      <c r="P10" s="1">
         <v>4.05</v>
       </c>
-      <c r="O10" s="4">
+      <c r="Q10" s="1">
         <v>7.04</v>
       </c>
-      <c r="P10">
-        <v>139868.11299774321</v>
-      </c>
-      <c r="Q10">
-        <v>102199.89723412626</v>
-      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
       <c r="B11" s="1">
         <v>299286</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="1">
+        <v>159827.79999999999</v>
+      </c>
+      <c r="D11" s="5">
         <v>37375.317863965167</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
-        <v>14685.780404520001</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" s="5">
+        <v>115759.3407164298</v>
+      </c>
+      <c r="F11" s="5">
+        <v>153555.19584430254</v>
+      </c>
+      <c r="G11" s="1">
+        <v>19933.240000000002</v>
+      </c>
+      <c r="H11" s="6">
         <v>43172.474750917652</v>
       </c>
-      <c r="G11" s="1">
-        <v>8041654.3099999996</v>
-      </c>
-      <c r="H11" s="1">
-        <v>4779.0499999999993</v>
-      </c>
       <c r="I11" s="1">
+        <v>8317467</v>
+      </c>
+      <c r="J11" s="1">
         <v>141175.5</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="L11" s="1">
         <v>3253980.34308375</v>
       </c>
-      <c r="K11" s="1">
+      <c r="M11" s="1">
         <v>3387717.1599382199</v>
       </c>
-      <c r="L11" s="1">
+      <c r="N11" s="1">
         <v>6.4849624060150379</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="1">
         <v>18.96</v>
       </c>
-      <c r="N11" s="5">
+      <c r="P11" s="1">
         <v>3.95</v>
       </c>
-      <c r="O11" s="4">
+      <c r="Q11" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P11">
-        <v>153555.19584430254</v>
-      </c>
-      <c r="Q11">
-        <v>115759.3407164298</v>
-      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
       <c r="B12" s="1">
         <v>335027.8</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="1">
+        <v>165958.29999999999</v>
+      </c>
+      <c r="D12" s="5">
         <v>41225.212996853486</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1">
-        <v>16198.627446590001</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" s="5">
+        <v>130773.47350478238</v>
+      </c>
+      <c r="F12" s="5">
+        <v>172578.02286450635</v>
+      </c>
+      <c r="G12" s="1">
+        <v>21358</v>
+      </c>
+      <c r="H12" s="6">
         <v>49543.857964999988</v>
       </c>
-      <c r="G12" s="1">
-        <v>8200795.0199999996</v>
-      </c>
-      <c r="H12" s="1">
-        <v>6121.7583333333341</v>
-      </c>
       <c r="I12" s="1">
+        <v>8480670</v>
+      </c>
+      <c r="J12" s="1">
         <v>156597.1</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="L12" s="1">
         <v>3226135.3096954301</v>
       </c>
-      <c r="K12" s="1">
+      <c r="M12" s="1">
         <v>3369918.7024299698</v>
       </c>
-      <c r="L12" s="1">
+      <c r="N12" s="1">
         <v>5.604589585172115</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="1">
         <v>18.100000000000001</v>
       </c>
-      <c r="N12" s="5">
+      <c r="P12" s="1">
         <v>3.7</v>
       </c>
-      <c r="O12" s="4">
+      <c r="Q12" s="1">
         <v>4.53</v>
       </c>
-      <c r="P12">
-        <v>172578.02286450635</v>
-      </c>
-      <c r="Q12">
-        <v>130773.47350478238</v>
-      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
       <c r="B13" s="1">
         <v>361348.5</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="1">
+        <v>172810.2</v>
+      </c>
+      <c r="D13" s="5">
         <v>38399.880424509989</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1">
-        <v>16426.063387559996</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="E13" s="5">
+        <v>136500.91175878409</v>
+      </c>
+      <c r="F13" s="5">
+        <v>184622.46816722286</v>
+      </c>
+      <c r="G13" s="1">
+        <v>22149</v>
+      </c>
+      <c r="H13" s="6">
         <v>53299.219078000002</v>
       </c>
-      <c r="G13" s="1">
-        <v>8303399.25</v>
-      </c>
-      <c r="H13" s="1">
-        <v>6377.7062499999993</v>
-      </c>
       <c r="I13" s="1">
+        <v>8640692</v>
+      </c>
+      <c r="J13" s="1">
         <v>165798.39999999999</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="L13" s="1">
         <v>3243876.7270431402</v>
       </c>
-      <c r="K13" s="1">
+      <c r="M13" s="1">
         <v>3364687.86263286</v>
       </c>
-      <c r="L13" s="1">
+      <c r="N13" s="1">
         <v>5.3907229419139169</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="1">
         <v>19.239999999999998</v>
       </c>
-      <c r="N13" s="5">
+      <c r="P13" s="1">
         <v>3.9</v>
       </c>
-      <c r="O13" s="4">
+      <c r="Q13" s="1">
         <v>5.78</v>
       </c>
-      <c r="P13">
-        <v>184622.46816722286</v>
-      </c>
-      <c r="Q13">
-        <v>136500.91175878409</v>
-      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
       <c r="B14" s="1">
         <v>376539.4</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="1">
+        <v>177634.3</v>
+      </c>
+      <c r="D14" s="5">
         <v>40120.01796338</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1">
-        <v>17062.025024989998</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E14" s="5">
+        <v>147467.67011946431</v>
+      </c>
+      <c r="F14" s="5">
+        <v>199890.63485501939</v>
+      </c>
+      <c r="G14" s="1">
+        <v>23600</v>
+      </c>
+      <c r="H14" s="6">
         <v>56726.742616389995</v>
       </c>
-      <c r="G14" s="1">
-        <v>8535691.6400000006</v>
-      </c>
-      <c r="H14" s="1">
-        <v>6770.0687500000013</v>
-      </c>
       <c r="I14" s="1">
+        <v>8798524</v>
+      </c>
+      <c r="J14" s="1">
         <v>176734.7</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
+        <v>6.12</v>
+      </c>
+      <c r="L14" s="1">
         <v>3487008.8240420702</v>
       </c>
-      <c r="K14" s="1">
+      <c r="M14" s="1">
         <v>3628732.7025385201</v>
       </c>
-      <c r="L14" s="1">
+      <c r="N14" s="1">
         <v>4.9167327517843029</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="1">
         <v>20.28</v>
       </c>
-      <c r="N14" s="5">
+      <c r="P14" s="1">
         <v>3.97</v>
       </c>
-      <c r="O14" s="4">
+      <c r="Q14" s="1">
         <v>6.41</v>
       </c>
-      <c r="P14">
-        <v>199890.63485501939</v>
-      </c>
-      <c r="Q14">
-        <v>147467.67011946431</v>
-      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
       <c r="B15" s="1">
         <v>414633.5</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="1">
+        <v>183066.5</v>
+      </c>
+      <c r="D15" s="5">
         <v>45521.736282235201</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1">
-        <v>19149.545424223619</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E15" s="5">
+        <v>163248.75162129136</v>
+      </c>
+      <c r="F15" s="5">
+        <v>226358.04146226286</v>
+      </c>
+      <c r="G15" s="1">
+        <v>26395</v>
+      </c>
+      <c r="H15" s="6">
         <v>68598.42659006</v>
       </c>
-      <c r="G15" s="1">
-        <v>8308417</v>
-      </c>
-      <c r="H15" s="1">
-        <v>7157.5124999999998</v>
-      </c>
       <c r="I15" s="1">
+        <v>8955579</v>
+      </c>
+      <c r="J15" s="1">
         <v>188793.2</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
+        <v>4.43</v>
+      </c>
+      <c r="L15" s="1">
         <v>3460910.6469989698</v>
       </c>
-      <c r="K15" s="1">
+      <c r="M15" s="1">
         <v>3655098.76397601</v>
       </c>
-      <c r="L15" s="1">
+      <c r="N15" s="1">
         <v>5.8201058201058142</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="1">
         <v>20.65</v>
       </c>
-      <c r="N15" s="5">
+      <c r="P15" s="1">
         <v>3.79</v>
       </c>
-      <c r="O15" s="4">
+      <c r="Q15" s="1">
         <v>6.08</v>
       </c>
-      <c r="P15">
-        <v>226358.04146226286</v>
-      </c>
-      <c r="Q15">
-        <v>163248.75162129136</v>
-      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
       <c r="B16" s="1">
         <v>460405.2</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="1">
+        <v>190096.4</v>
+      </c>
+      <c r="D16" s="5">
         <v>52279.498092120157</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1">
-        <v>21635.0491745654</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E16" s="5">
+        <v>180774.55034281389</v>
+      </c>
+      <c r="F16" s="5">
+        <v>244036.24035413505</v>
+      </c>
+      <c r="G16" s="1">
+        <v>29452</v>
+      </c>
+      <c r="H16" s="6">
         <v>79863.057940924991</v>
       </c>
-      <c r="G16" s="1">
-        <v>8570154</v>
-      </c>
-      <c r="H16" s="1">
-        <v>7610.90625</v>
-      </c>
       <c r="I16" s="1">
+        <v>9112904</v>
+      </c>
+      <c r="J16" s="1">
         <v>202459.1</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
+        <v>6.43</v>
+      </c>
+      <c r="L16" s="1">
         <v>3647637.0321056498</v>
       </c>
-      <c r="K16" s="1">
+      <c r="M16" s="1">
         <v>3935335</v>
       </c>
-      <c r="L16" s="1">
+      <c r="N16" s="1">
         <v>2.3571428571428577</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="1">
         <v>20.02</v>
       </c>
-      <c r="N16" s="5">
+      <c r="P16" s="1">
         <v>3.7</v>
       </c>
-      <c r="O16" s="4">
+      <c r="Q16" s="1">
         <v>5.3</v>
       </c>
-      <c r="P16">
-        <v>244036.24035413505</v>
-      </c>
-      <c r="Q16">
-        <v>180774.55034281389</v>
-      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
       <c r="B17" s="1">
         <v>495921.9</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="1">
+        <v>197496.8</v>
+      </c>
+      <c r="D17" s="5">
         <v>58480.740118546571</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1">
-        <v>24109.802685501505</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="E17" s="5">
+        <v>213702.46676373467</v>
+      </c>
+      <c r="F17" s="5">
+        <v>288072.67758616665</v>
+      </c>
+      <c r="G17" s="1">
+        <v>31359</v>
+      </c>
+      <c r="H17" s="6">
         <v>90965.629630693002</v>
       </c>
-      <c r="G17" s="1">
-        <v>8714641</v>
-      </c>
-      <c r="H17" s="1">
-        <v>8077.5340909090919</v>
-      </c>
       <c r="I17" s="1">
+        <v>9270794</v>
+      </c>
+      <c r="J17" s="1">
         <v>216705.3</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="L17" s="1">
         <v>3653787.0229581399</v>
       </c>
-      <c r="K17" s="1">
+      <c r="M17" s="1">
         <v>3944835.5112500601</v>
       </c>
-      <c r="L17" s="1">
+      <c r="N17" s="1">
         <v>3.3147243545010419</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="1">
         <v>18.79</v>
       </c>
-      <c r="N17" s="5">
+      <c r="P17" s="1">
         <v>3.53</v>
       </c>
-      <c r="O17" s="4">
+      <c r="Q17" s="1">
         <v>4.8499999999999996</v>
       </c>
-      <c r="P17">
-        <v>288072.67758616665</v>
-      </c>
-      <c r="Q17">
-        <v>213702.46676373467</v>
-      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
       <c r="B18" s="1">
         <v>543403</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="1">
+        <v>207061.4</v>
+      </c>
+      <c r="D18" s="5">
         <v>66741.835368049884</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1">
-        <v>28545.84703408381</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="E18" s="5">
+        <v>241981.9252882927</v>
+      </c>
+      <c r="F18" s="5">
+        <v>323665.20942495979</v>
+      </c>
+      <c r="G18" s="1">
+        <v>37567</v>
+      </c>
+      <c r="H18" s="6">
         <v>99226.370780571015</v>
       </c>
-      <c r="G18" s="1">
-        <v>8859980</v>
-      </c>
-      <c r="H18" s="1">
-        <v>8448.3886363636375</v>
-      </c>
       <c r="I18" s="1">
+        <v>9429016</v>
+      </c>
+      <c r="J18" s="1">
         <v>233097.4</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="L18" s="1">
         <v>3819978.2322415798</v>
       </c>
-      <c r="K18" s="1">
+      <c r="M18" s="1">
         <v>4093474.222108868</v>
       </c>
-      <c r="L18" s="1">
+      <c r="N18" s="1">
         <v>4.7281323877068626</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="1">
         <v>18.239999999999998</v>
       </c>
-      <c r="N18" s="5">
+      <c r="P18" s="1">
         <v>3.11</v>
       </c>
-      <c r="O18" s="4">
+      <c r="Q18" s="1">
         <v>4.62</v>
       </c>
-      <c r="P18">
-        <v>323665.20942495979</v>
-      </c>
-      <c r="Q18">
-        <v>241981.9252882927</v>
-      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
       <c r="B19" s="1">
         <v>575284.9</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="1">
+        <v>215022.9</v>
+      </c>
+      <c r="D19" s="5">
         <v>70864.540288756776</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1">
-        <v>29553.459723619999</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="E19" s="5">
+        <v>264766.43392717699</v>
+      </c>
+      <c r="F19" s="5">
+        <v>349918.63868688815</v>
+      </c>
+      <c r="G19" s="1">
+        <v>39292</v>
+      </c>
+      <c r="H19" s="6">
         <v>105995.76259293001</v>
       </c>
-      <c r="G19" s="1">
-        <v>9023838</v>
-      </c>
-      <c r="H19" s="1">
-        <v>8910.6340909090923</v>
-      </c>
       <c r="I19" s="1">
+        <v>9587523</v>
+      </c>
+      <c r="J19" s="1">
         <v>246430.5</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
+        <v>3.89</v>
+      </c>
+      <c r="L19" s="1">
         <v>4090651.3951348201</v>
       </c>
-      <c r="K19" s="1">
+      <c r="M19" s="1">
         <v>4336377.8916988904</v>
       </c>
-      <c r="L19" s="1">
+      <c r="N19" s="1">
         <v>4.2244437278297298</v>
       </c>
-      <c r="M19" s="5">
+      <c r="O19" s="1">
         <v>17.43</v>
       </c>
-      <c r="N19" s="5">
+      <c r="P19" s="1">
         <v>2.95</v>
       </c>
-      <c r="O19" s="4">
+      <c r="Q19" s="1">
         <v>4.62</v>
       </c>
-      <c r="P19">
-        <v>349918.63868688815</v>
-      </c>
-      <c r="Q19">
-        <v>264766.43392717699</v>
-      </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="B20" s="1">
         <v>614917.69999999995</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="1">
+        <v>220727.6</v>
+      </c>
+      <c r="D20" s="5">
         <v>81953.413669296875</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1">
-        <v>33416.037005229999</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="E20" s="5">
+        <v>301033.21517638501</v>
+      </c>
+      <c r="F20" s="5">
+        <v>387446.33627332462</v>
+      </c>
+      <c r="G20" s="1">
+        <v>43640</v>
+      </c>
+      <c r="H20" s="6">
         <v>107445.71233462</v>
       </c>
-      <c r="G20" s="1">
-        <v>9151940</v>
-      </c>
-      <c r="H20" s="1">
-        <v>9443.24</v>
-      </c>
       <c r="I20" s="1">
+        <v>9746115</v>
+      </c>
+      <c r="J20" s="1">
         <v>264198.3</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="L20" s="1">
         <v>3979761.4408606421</v>
       </c>
-      <c r="K20" s="1">
+      <c r="M20" s="1">
         <v>4220294</v>
       </c>
-      <c r="L20" s="1">
+      <c r="N20" s="1">
         <v>4.0841584158415767</v>
       </c>
-      <c r="M20" s="5">
+      <c r="O20" s="1">
         <v>17.39</v>
       </c>
-      <c r="N20" s="5">
+      <c r="P20" s="1">
         <v>3.35</v>
       </c>
-      <c r="O20" s="4">
+      <c r="Q20" s="1">
         <v>4.95</v>
       </c>
-      <c r="P20">
-        <v>387446.33627332462</v>
-      </c>
-      <c r="Q20">
-        <v>301033.21517638501</v>
-      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
       <c r="B21" s="1">
         <v>585733.6</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="1">
+        <v>200939.9</v>
+      </c>
+      <c r="D21" s="5">
         <v>106018.77652659427</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1">
-        <v>42488.440503003112</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="E21" s="5">
+        <v>362352.76241546974</v>
+      </c>
+      <c r="F21" s="5">
+        <v>459834.08638890175</v>
+      </c>
+      <c r="G21" s="1">
+        <v>53498.82</v>
+      </c>
+      <c r="H21" s="6">
         <v>86485.868883419986</v>
       </c>
-      <c r="G21" s="1">
-        <v>9362596</v>
-      </c>
-      <c r="H21" s="1">
-        <v>10022.040000000001</v>
-      </c>
       <c r="I21" s="1">
+        <v>9904608</v>
+      </c>
+      <c r="J21" s="1">
         <v>252432.1</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
+        <v>3.32</v>
+      </c>
+      <c r="L21" s="1">
         <v>3655653</v>
       </c>
-      <c r="K21" s="1">
+      <c r="M21" s="1">
         <v>4103427</v>
       </c>
-      <c r="L21" s="1">
+      <c r="N21" s="1">
         <v>4.0130796670630131</v>
       </c>
-      <c r="M21" s="5">
+      <c r="O21" s="1">
         <v>16.68</v>
       </c>
-      <c r="N21" s="5">
+      <c r="P21" s="1">
         <v>3.13</v>
       </c>
-      <c r="O21" s="4">
+      <c r="Q21" s="1">
         <v>4.18</v>
       </c>
-      <c r="P21">
-        <v>459834.08638890175</v>
-      </c>
-      <c r="Q21">
-        <v>362352.76241546974</v>
-      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
       <c r="B22" s="1">
         <v>684203.8</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="1">
+        <v>226125.9</v>
+      </c>
+      <c r="D22" s="5">
         <v>115266.28730683128</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1">
-        <v>50453.815118878607</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="E22" s="5">
+        <v>402357.13215534104</v>
+      </c>
+      <c r="F22" s="5">
+        <v>503907.53226568562</v>
+      </c>
+      <c r="G22" s="1">
+        <v>62545.99</v>
+      </c>
+      <c r="H22" s="6">
         <v>118358.69</v>
       </c>
-      <c r="G22" s="1">
-        <v>9500256.9999997877</v>
-      </c>
-      <c r="H22" s="1">
-        <v>10601.67</v>
-      </c>
       <c r="I22" s="1">
+        <v>10062994</v>
+      </c>
+      <c r="J22" s="1">
         <v>287359.3</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
+        <v>-0.67</v>
+      </c>
+      <c r="L22" s="1">
         <v>3722369.5436004065</v>
       </c>
-      <c r="K22" s="1">
+      <c r="M22" s="1">
         <v>4071227.2451356156</v>
       </c>
-      <c r="L22" s="1">
+      <c r="N22" s="1">
         <v>5.3199999999999994</v>
       </c>
-      <c r="M22" s="5">
+      <c r="O22" s="1">
         <v>15.08</v>
       </c>
-      <c r="N22" s="5">
+      <c r="P22" s="1">
         <v>2.38</v>
       </c>
-      <c r="O22" s="4">
+      <c r="Q22" s="1">
         <v>2.69</v>
-      </c>
-      <c r="P22">
-        <v>503907.53226568562</v>
-      </c>
-      <c r="Q22">
-        <v>402357.13215534104</v>
       </c>
     </row>
   </sheetData>

--- a/BDD_informalidad.xlsx
+++ b/BDD_informalidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sargobhn-my.sharepoint.com/personal/jbermudez_sar_gob_hn/Documents/Informalidad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{CD987912-5763-4003-8E21-DF35BBBD3BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C51CE83-8603-437C-BAFC-5074F76DC309}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{CD987912-5763-4003-8E21-DF35BBBD3BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0CBAA82-7DBB-4321-A406-8C3AE188E66E}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8264A5D2-B10E-4E04-BF01-AAAB338D95EA}"/>
   </bookViews>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>ingresos_tributarios</t>
-  </si>
-  <si>
-    <t>población</t>
   </si>
   <si>
     <t>Ocupados</t>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>tasa_real</t>
+  </si>
+  <si>
+    <t>pib_percap</t>
   </si>
 </sst>
 </file>
@@ -162,7 +162,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -176,6 +176,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -495,7 +496,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,22 +510,22 @@
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>0</v>
@@ -533,31 +534,31 @@
         <v>1</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -585,8 +586,8 @@
       <c r="H2" s="6">
         <v>16083.205000000002</v>
       </c>
-      <c r="I2" s="1">
-        <v>6751912</v>
+      <c r="I2" s="7">
+        <v>18119</v>
       </c>
       <c r="J2" s="1">
         <v>51915.3</v>
@@ -639,8 +640,8 @@
       <c r="H3" s="6">
         <v>17228.944926000004</v>
       </c>
-      <c r="I3" s="1">
-        <v>6929267</v>
+      <c r="I3" s="7">
+        <v>19294</v>
       </c>
       <c r="J3" s="1">
         <v>57536.2</v>
@@ -693,8 +694,8 @@
       <c r="H4" s="6">
         <v>19632.368080799999</v>
       </c>
-      <c r="I4" s="1">
-        <v>7106323</v>
+      <c r="I4" s="7">
+        <v>20816</v>
       </c>
       <c r="J4" s="1">
         <v>64791.1</v>
@@ -747,8 +748,8 @@
       <c r="H5" s="6">
         <v>23411.646999999997</v>
       </c>
-      <c r="I5" s="1">
-        <v>7282953</v>
+      <c r="I5" s="7">
+        <v>22979</v>
       </c>
       <c r="J5" s="1">
         <v>72273.100000000006</v>
@@ -801,8 +802,8 @@
       <c r="H6" s="6">
         <v>26707.625000000004</v>
       </c>
-      <c r="I6" s="1">
-        <v>7458982</v>
+      <c r="I6" s="7">
+        <v>25530</v>
       </c>
       <c r="J6" s="1">
         <v>81708.899999999994</v>
@@ -855,8 +856,8 @@
       <c r="H7" s="6">
         <v>31434.857731999997</v>
       </c>
-      <c r="I7" s="1">
-        <v>7634295</v>
+      <c r="I7" s="7">
+        <v>28002</v>
       </c>
       <c r="J7" s="1">
         <v>91483.199999999997</v>
@@ -909,8 +910,8 @@
       <c r="H8" s="6">
         <v>38269.987959999999</v>
       </c>
-      <c r="I8" s="1">
-        <v>7808520</v>
+      <c r="I8" s="7">
+        <v>30990</v>
       </c>
       <c r="J8" s="1">
         <v>105306.8</v>
@@ -963,8 +964,8 @@
       <c r="H9" s="6">
         <v>42328.932000000001</v>
       </c>
-      <c r="I9" s="1">
-        <v>7980955</v>
+      <c r="I9" s="7">
+        <v>34050</v>
       </c>
       <c r="J9" s="1">
         <v>120028.7</v>
@@ -1017,8 +1018,8 @@
       <c r="H10" s="6">
         <v>39035</v>
       </c>
-      <c r="I10" s="1">
-        <v>8150780</v>
+      <c r="I10" s="7">
+        <v>34994</v>
       </c>
       <c r="J10" s="1">
         <v>128555.4</v>
@@ -1071,8 +1072,8 @@
       <c r="H11" s="6">
         <v>43172.474750917652</v>
       </c>
-      <c r="I11" s="1">
-        <v>8317467</v>
+      <c r="I11" s="7">
+        <v>37197</v>
       </c>
       <c r="J11" s="1">
         <v>141175.5</v>
@@ -1125,8 +1126,8 @@
       <c r="H12" s="6">
         <v>49543.857964999988</v>
       </c>
-      <c r="I12" s="1">
-        <v>8480670</v>
+      <c r="I12" s="7">
+        <v>40782</v>
       </c>
       <c r="J12" s="1">
         <v>156597.1</v>
@@ -1179,8 +1180,8 @@
       <c r="H13" s="6">
         <v>53299.219078000002</v>
       </c>
-      <c r="I13" s="1">
-        <v>8640692</v>
+      <c r="I13" s="7">
+        <v>43094</v>
       </c>
       <c r="J13" s="1">
         <v>165798.39999999999</v>
@@ -1233,8 +1234,8 @@
       <c r="H14" s="6">
         <v>56726.742616389995</v>
       </c>
-      <c r="I14" s="1">
-        <v>8798524</v>
+      <c r="I14" s="7">
+        <v>45345</v>
       </c>
       <c r="J14" s="1">
         <v>176734.7</v>
@@ -1287,8 +1288,8 @@
       <c r="H15" s="6">
         <v>68598.42659006</v>
       </c>
-      <c r="I15" s="1">
-        <v>8955579</v>
+      <c r="I15" s="7">
+        <v>49173</v>
       </c>
       <c r="J15" s="1">
         <v>188793.2</v>
@@ -1341,8 +1342,8 @@
       <c r="H16" s="6">
         <v>79863.057940924991</v>
       </c>
-      <c r="I16" s="1">
-        <v>9112904</v>
+      <c r="I16" s="7">
+        <v>53682</v>
       </c>
       <c r="J16" s="1">
         <v>202459.1</v>
@@ -1395,8 +1396,8 @@
       <c r="H17" s="6">
         <v>90965.629630693002</v>
       </c>
-      <c r="I17" s="1">
-        <v>9270794</v>
+      <c r="I17" s="7">
+        <v>56865</v>
       </c>
       <c r="J17" s="1">
         <v>216705.3</v>
@@ -1449,8 +1450,8 @@
       <c r="H18" s="6">
         <v>99226.370780571015</v>
       </c>
-      <c r="I18" s="1">
-        <v>9429016</v>
+      <c r="I18" s="7">
+        <v>61332</v>
       </c>
       <c r="J18" s="1">
         <v>233097.4</v>
@@ -1503,8 +1504,8 @@
       <c r="H19" s="6">
         <v>105995.76259293001</v>
       </c>
-      <c r="I19" s="1">
-        <v>9587523</v>
+      <c r="I19" s="7">
+        <v>63752</v>
       </c>
       <c r="J19" s="1">
         <v>246430.5</v>
@@ -1557,8 +1558,8 @@
       <c r="H20" s="6">
         <v>107445.71233462</v>
       </c>
-      <c r="I20" s="1">
-        <v>9746115</v>
+      <c r="I20" s="7">
+        <v>67190</v>
       </c>
       <c r="J20" s="1">
         <v>264198.3</v>
@@ -1611,8 +1612,8 @@
       <c r="H21" s="6">
         <v>86485.868883419986</v>
       </c>
-      <c r="I21" s="1">
-        <v>9904608</v>
+      <c r="I21" s="7">
+        <v>62953</v>
       </c>
       <c r="J21" s="1">
         <v>252432.1</v>
@@ -1665,8 +1666,8 @@
       <c r="H22" s="6">
         <v>118358.69</v>
       </c>
-      <c r="I22" s="1">
-        <v>10062994</v>
+      <c r="I22" s="7">
+        <v>72397</v>
       </c>
       <c r="J22" s="1">
         <v>287359.3</v>
@@ -1917,18 +1918,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1951,18 +1952,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAFDE13-8D48-4A1B-8A83-8CCF464BCB5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE63FCEF-28AE-43C0-83D3-D5EEA71F2F85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAFDE13-8D48-4A1B-8A83-8CCF464BCB5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/BDD_informalidad.xlsx
+++ b/BDD_informalidad.xlsx
@@ -496,7 +496,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BDD_informalidad.xlsx
+++ b/BDD_informalidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sargobhn-my.sharepoint.com/personal/jbermudez_sar_gob_hn/Documents/Informalidad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{CD987912-5763-4003-8E21-DF35BBBD3BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0CBAA82-7DBB-4321-A406-8C3AE188E66E}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{CD987912-5763-4003-8E21-DF35BBBD3BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96F892D4-17A6-4C5D-B171-B11790A69445}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8264A5D2-B10E-4E04-BF01-AAAB338D95EA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>billetes_monedas</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>pib_percap</t>
+  </si>
+  <si>
+    <t>IPC</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -177,6 +180,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -493,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064B7E14-16E8-4B79-A5B9-74D1EC4C23F6}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +512,7 @@
     <col min="11" max="11" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -560,8 +564,11 @@
       <c r="Q1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2001</v>
       </c>
@@ -613,8 +620,11 @@
       <c r="Q2" s="1">
         <v>11.76</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="8">
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>+A2+1</f>
         <v>2002</v>
@@ -667,8 +677,11 @@
       <c r="Q3" s="1">
         <v>9.57</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="8">
+        <v>125.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A22" si="0">+A3+1</f>
         <v>2003</v>
@@ -721,8 +734,11 @@
       <c r="Q4" s="1">
         <v>8.14</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="8">
+        <v>134.69999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -775,8 +791,11 @@
       <c r="Q5" s="1">
         <v>8.0399999999999991</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="8">
+        <v>145.69999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -829,8 +848,11 @@
       <c r="Q6" s="1">
         <v>8.0500000000000007</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="8">
+        <v>158.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -883,8 +905,11 @@
       <c r="Q7" s="1">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="8">
+        <v>167.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -937,8 +962,11 @@
       <c r="Q8" s="1">
         <v>5.64</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -991,8 +1019,11 @@
       <c r="Q9" s="1">
         <v>7.57</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="8">
+        <v>199.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -1045,8 +1076,11 @@
       <c r="Q10" s="1">
         <v>7.04</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="8">
+        <v>210.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -1099,8 +1133,11 @@
       <c r="Q11" s="1">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="8">
+        <v>220.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -1153,8 +1190,11 @@
       <c r="Q12" s="1">
         <v>4.53</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" s="8">
+        <v>235.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -1207,8 +1247,11 @@
       <c r="Q13" s="1">
         <v>5.78</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" s="8">
+        <v>247.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -1261,8 +1304,11 @@
       <c r="Q14" s="1">
         <v>6.41</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="8">
+        <v>260.10000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -1315,8 +1361,11 @@
       <c r="Q15" s="1">
         <v>6.08</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" s="8">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -1369,8 +1418,11 @@
       <c r="Q16" s="1">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" s="8">
+        <v>284.74999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -1423,8 +1475,11 @@
       <c r="Q17" s="1">
         <v>4.8499999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="8">
+        <v>292.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -1477,8 +1532,11 @@
       <c r="Q18" s="1">
         <v>4.62</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="8">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -1531,8 +1589,11 @@
       <c r="Q19" s="1">
         <v>4.62</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="8">
+        <v>317.23333333333329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -1585,8 +1646,11 @@
       <c r="Q20" s="1">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" s="8">
+        <v>331.08333333333331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -1639,8 +1703,11 @@
       <c r="Q21" s="1">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" s="8">
+        <v>342.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -1692,6 +1759,9 @@
       </c>
       <c r="Q22" s="1">
         <v>2.69</v>
+      </c>
+      <c r="R22" s="8">
+        <v>357.9</v>
       </c>
     </row>
   </sheetData>
@@ -1918,18 +1988,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1952,18 +2022,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAFDE13-8D48-4A1B-8A83-8CCF464BCB5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE63FCEF-28AE-43C0-83D3-D5EEA71F2F85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BAFDE13-8D48-4A1B-8A83-8CCF464BCB5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>